--- a/SRCMutation/test/test.xlsx
+++ b/SRCMutation/test/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar.cornejo/Workspace/srcirorfaqas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar.cornejo/Workspace/srcirorfaqas/SRCMutation/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D717FA03-AB44-124E-A6D4-7C2E94B4EF32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEEA61-00CF-4F45-86DF-B594491AE34F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37380" yWindow="-3920" windowWidth="23360" windowHeight="20500" xr2:uid="{6B0E09C4-3155-484E-9CD4-9291517D2B49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t>operator</t>
   </si>
@@ -451,6 +451,51 @@
   </si>
   <si>
     <t>{&gt;, &gt;=, &lt;, &lt;=, ==}</t>
+  </si>
+  <si>
+    <t>lcr_many.sh</t>
+  </si>
+  <si>
+    <t>rod_many.sh</t>
+  </si>
+  <si>
+    <t>icr_many.sh</t>
+  </si>
+  <si>
+    <t>lvr_many.sh</t>
+  </si>
+  <si>
+    <t>abs_val_many.sh</t>
+  </si>
+  <si>
+    <t>ror_many.sh</t>
+  </si>
+  <si>
+    <t>uoi_many.sh</t>
+  </si>
+  <si>
+    <t>aod_many.sh</t>
+  </si>
+  <si>
+    <t>sod_many.sh</t>
+  </si>
+  <si>
+    <t>sdl_many.sh</t>
+  </si>
+  <si>
+    <t>aor_many.sh</t>
+  </si>
+  <si>
+    <t>bod_many.sh</t>
+  </si>
+  <si>
+    <t>many.sh</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
 </sst>
 </file>
@@ -501,15 +546,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4575ABB-E208-A547-B26A-A0C9AFBF9158}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,706 +898,706 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="1"/>
@@ -1631,87 +1678,213 @@
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E67" s="1"/>
     </row>
   </sheetData>
